--- a/日志（备忘）.xlsx
+++ b/日志（备忘）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="11" activeTab="17"/>
+    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="13" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="2016.7.21" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,16 @@
     <sheet name="2016.9.21" sheetId="16" r:id="rId16"/>
     <sheet name="2016.9.22" sheetId="17" r:id="rId17"/>
     <sheet name="2016.9.23" sheetId="18" r:id="rId18"/>
+    <sheet name="2016.9.26" sheetId="19" r:id="rId19"/>
+    <sheet name="2016.9.27" sheetId="20" r:id="rId20"/>
+    <sheet name="2016.9.28" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
   <si>
     <t>Mybatis</t>
   </si>
@@ -520,6 +523,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Request For Comments</t>
     </r>
     <r>
@@ -553,18 +562,87 @@
   <si>
     <t>接口对接出错统计</t>
   </si>
+  <si>
+    <t>POP3/IMAP SMTP区别与联系</t>
+  </si>
+  <si>
+    <t>POP3单向协议，客户端的操作不反馈，离线接收邮件，SMTP避免垃圾邮件侵扰，IMAP双向协议，客户端与服务器同步</t>
+  </si>
+  <si>
+    <t>预约取消，info显示有问题</t>
+  </si>
+  <si>
+    <t>code=1时误取了message中的结果，应该取data中的信息</t>
+  </si>
+  <si>
+    <t>B2B集成</t>
+  </si>
+  <si>
+    <t>Business-to-Business的缩写）是指企业与企业之间通过专用网络或Internet，进行数据信息的交换、传递，开展交易活动的商业模式</t>
+  </si>
+  <si>
+    <t>RPC</t>
+  </si>
+  <si>
+    <t>（Remote Procedure Call Protocol）——远程过程调用协议</t>
+  </si>
+  <si>
+    <t>JPA</t>
+  </si>
+  <si>
+    <t>JDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP </t>
+  </si>
+  <si>
+    <t>JBuilder</t>
+  </si>
+  <si>
+    <t>DCOM</t>
+  </si>
+  <si>
+    <t>COM语言</t>
+  </si>
+  <si>
+    <t>OA系统9/29请假单</t>
+  </si>
+  <si>
+    <t>云计算</t>
+  </si>
+  <si>
+    <t>Dom4j</t>
+  </si>
+  <si>
+    <t>Bmob后端云</t>
+  </si>
+  <si>
+    <t>AES密钥</t>
+  </si>
+  <si>
+    <t>OPENSSL</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Laboratory Information Management System，是专为医院检验科设计的一套实验室信息管理系统</t>
+  </si>
+  <si>
+    <t>北京医院添加了 检验报告，住院模块</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +654,12 @@
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2C2C2C"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -682,7 +766,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -690,9 +774,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -705,36 +863,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -743,57 +871,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
@@ -827,7 +911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,55 +923,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,121 +1085,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,26 +1126,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,26 +1167,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,6 +1190,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1132,10 +1216,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1144,153 +1228,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1299,49 +1383,52 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="10" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1788,7 +1875,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1796,7 +1883,7 @@
       </c>
     </row>
     <row r="3" ht="81" spans="2:2">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1815,7 +1902,7 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1832,11 +1919,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" s="20" customFormat="1" ht="40.5" spans="1:2">
-      <c r="A14" s="20" t="s">
+    <row r="14" s="21" customFormat="1" ht="40.5" spans="1:2">
+      <c r="A14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1845,7 +1932,7 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1913,7 +2000,7 @@
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1934,40 +2021,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="9" style="13"/>
-    <col min="3" max="3" width="9.875" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="13"/>
+    <col min="1" max="2" width="9" style="14"/>
+    <col min="3" max="3" width="9.875" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" ht="54" spans="2:3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" ht="45" spans="2:3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" ht="27" spans="3:3">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1988,21 +2075,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="4" width="24.25" style="13" customWidth="1"/>
-    <col min="7" max="7" width="21.375" style="13" customWidth="1"/>
+    <col min="3" max="4" width="24.25" style="14" customWidth="1"/>
+    <col min="7" max="7" width="21.375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2010,13 +2097,13 @@
       <c r="A2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2024,13 +2111,13 @@
       <c r="A3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2082,7 +2169,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11">
+      <c r="A1" s="12">
         <v>0.647222222222222</v>
       </c>
       <c r="B1" t="s">
@@ -2101,7 +2188,7 @@
       <c r="A6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2119,7 +2206,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2131,7 +2218,7 @@
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2141,18 +2228,18 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2166,13 +2253,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" s="1" customFormat="1" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2203,7 +2290,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -2215,7 +2302,7 @@
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2223,7 +2310,7 @@
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2237,7 +2324,7 @@
       <c r="B3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2250,7 +2337,7 @@
       <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2270,8 +2357,8 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -2288,31 +2375,31 @@
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2321,7 +2408,7 @@
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2337,6 +2424,39 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2359,12 +2479,12 @@
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="67.5" spans="2:2">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2381,7 +2501,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="54" spans="1:1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2392,7 +2512,7 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2400,6 +2520,135 @@
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="（Remote Procedure Call Protocol）——远程过程调用协议" tooltip="http://baike.baidu.com/view/431455.htm"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2418,11 +2667,11 @@
     <col min="1" max="2" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:2">
+      <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2546,7 +2795,7 @@
       <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2691,7 +2940,7 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2737,11 +2986,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:2">
-      <c r="A6" s="9" t="s">
+    <row r="6" s="10" customFormat="1" spans="1:2">
+      <c r="A6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2754,7 +3003,7 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>65</v>
       </c>
     </row>

--- a/日志（备忘）.xlsx
+++ b/日志（备忘）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="13" activeTab="20"/>
+    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="17" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="2016.7.21" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,16 @@
     <sheet name="2016.9.26" sheetId="19" r:id="rId19"/>
     <sheet name="2016.9.27" sheetId="20" r:id="rId20"/>
     <sheet name="2016.9.28" sheetId="21" r:id="rId21"/>
+    <sheet name="2016.9.30" sheetId="22" r:id="rId22"/>
+    <sheet name="2016.10.8" sheetId="23" r:id="rId23"/>
+    <sheet name="2016.10.9" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
   <si>
     <t>Mybatis</t>
   </si>
@@ -590,6 +593,9 @@
     <t>JPA</t>
   </si>
   <si>
+    <t>全称Java Persistence API.JPA通过JDK 5.0注解或XML描述对象－关系表的映射关系，并将运行期的实体对象持久化到数据库中</t>
+  </si>
+  <si>
     <t>JDA</t>
   </si>
   <si>
@@ -614,12 +620,18 @@
     <t>Dom4j</t>
   </si>
   <si>
+    <t>java XML API</t>
+  </si>
+  <si>
     <t>Bmob后端云</t>
   </si>
   <si>
     <t>AES密钥</t>
   </si>
   <si>
+    <t>对称密钥加密中最流行的算法之一。</t>
+  </si>
+  <si>
     <t>OPENSSL</t>
   </si>
   <si>
@@ -630,6 +642,176 @@
   </si>
   <si>
     <t>北京医院添加了 检验报告，住院模块</t>
+  </si>
+  <si>
+    <t>js中splice,slice函数区别</t>
+  </si>
+  <si>
+    <t>splice() 方法用于插入、删除或替换数组的元素。
+语法
+arrayObject.splice(index,howmany,element1,.....,elementX)</t>
+  </si>
+  <si>
+    <t>slice() 方法可提取字符串的某个部分，并以新的字符串返回被提取的部分。
+语法
+stringObject.slice(start,end)</t>
+  </si>
+  <si>
+    <t>start 要抽取的片断的起始下标。如果是负数，则该参数规定的是从字符串的尾部开始算起的位置。也就是说，-1 指字符串的最后一个字符，-2 指倒数第二个字符，以此类推。</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_877284510102uxmb.html</t>
+  </si>
+  <si>
+    <t>富文本</t>
+  </si>
+  <si>
+    <t>所谓富文本就是RTF（Rich Text Format）又译为多文本格式，简单点说就是它相对普通文本可以带有丰富的格式设置，使文本的可读性更强。</t>
+  </si>
+  <si>
+    <t>RUP</t>
+  </si>
+  <si>
+    <t>（Rational Unified Process，统一软件开发过程，统一软件过程)是一个面向对象且基于网络的程序开发方法论。</t>
+  </si>
+  <si>
+    <t>Scrum</t>
+  </si>
+  <si>
+    <t>Scrum是迭代式增量软件开发过程，通常用于敏捷软件开发。</t>
+  </si>
+  <si>
+    <t>XP</t>
+  </si>
+  <si>
+    <t>（Extreme Programming，XP）是一门针对业务和软件开发的规则，它的作用在于将两者的力量集中在共同的、可以达到的目标上。</t>
+  </si>
+  <si>
+    <t>CDN</t>
+  </si>
+  <si>
+    <t>Content Delivery Network，即内容分发网络。其基本思路是尽可能避开互联网上有可能影响数据传输速度和稳定性的瓶颈和环节，使内容传输的更快、更稳定。</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>（领域驱动设计Domain-DrivenDesign）</t>
+  </si>
+  <si>
+    <t>GRASP</t>
+  </si>
+  <si>
+    <t>(General Responsibility Assignment Software Patterns)，中文名称为“通用职责分配软件模式”)</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>固态硬盘</t>
+  </si>
+  <si>
+    <t>SATA</t>
+  </si>
+  <si>
+    <t>Serial Advanced Technology Attachment，串行高级技术附件）是一种基于行业标准的串行硬件驱动器接口，是由Intel、IBM、Dell、APT、Maxtor和Seagate公司共同提出的硬盘接口规范。</t>
+  </si>
+  <si>
+    <t>XSD</t>
+  </si>
+  <si>
+    <t>XML Schema Definition 缩写.可扩展标记语言架构是以可扩展标记语言（标准通用标记语言的子集）为基础的，它用于可替代文档类型定义（外语缩写：DTD）；一份XML schema文件描述了可扩展标记语言文档的结构。</t>
+  </si>
+  <si>
+    <t>DTD</t>
+  </si>
+  <si>
+    <t>Document Type Definition)是一套为了进行程序间的数据交换而建立的关于标记符的语法规则。</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>被sxd,dtd所约束，</t>
+  </si>
+  <si>
+    <t>环信（即时聊天）</t>
+  </si>
+  <si>
+    <t>极光（推送）</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>泛型</t>
+  </si>
+  <si>
+    <t>Log4J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  %m   输出代码中指定的消息
+　　%p   输出优先级，即DEBUG，INFO，WARN，ERROR，FATAL 
+　　%r   输出自应用启动到输出该log信息耗费的毫秒数 
+　　%c   输出所属的类目，通常就是所在类的全名 
+　　%t   输出产生该日志事件的线程名 
+　　%n   输出一个回车换行符，Windows平台为“/r/n”，Unix平台为“/n” 
+　　%d   输出日志时间点的日期或时间，默认格式为ISO8601，也可以在其后指定格式，比如：%d{yyy MMM dd HH:mm:ss , SSS}，输出类似：2002年10月18日  22 ： 10 ： 28 ， 921  
+　　%l   输出日志事件的发生位置，包括类目名、发生的线程，以及在代码中的行数。举例：Testlog4.main(TestLog4.java: 10 ) </t>
+  </si>
+  <si>
+    <t>MSSQL</t>
+  </si>
+  <si>
+    <t>Microsoft sql Server简称- -</t>
+  </si>
+  <si>
+    <t>slf4j</t>
+  </si>
+  <si>
+    <t>看图</t>
+  </si>
+  <si>
+    <t>Hadoop</t>
+  </si>
+  <si>
+    <t>HBase</t>
+  </si>
+  <si>
+    <t>JMX</t>
+  </si>
+  <si>
+    <t>运行时动态管理类（Java Management Extensions，即Java管理扩展）是一个为应用程序、设备、系统等植入管理功能的框架。</t>
+  </si>
+  <si>
+    <t>Groovy</t>
+  </si>
+  <si>
+    <t>ISO8601</t>
+  </si>
+  <si>
+    <t>国际标准时间格式YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>WebSphere</t>
+  </si>
+  <si>
+    <t>是 IBM 的软件平台。它包含了编写、运行和监视全天候的工业强度的随需应变 Web 应用程序和跨平台、跨产品解决方案所需要的整个中间件基础设施，如服务器、服务和工具。</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>代理</t>
+  </si>
+  <si>
+    <t>数据库优化</t>
+  </si>
+  <si>
+    <t>rowkey</t>
+  </si>
+  <si>
+    <t>mongodb</t>
   </si>
 </sst>
 </file>
@@ -637,10 +819,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -648,6 +830,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -686,14 +876,6 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -766,6 +948,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -780,18 +985,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -809,24 +1038,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,41 +1054,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -923,13 +1105,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,13 +1135,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,31 +1147,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,6 +1213,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1025,7 +1261,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,73 +1283,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1126,17 +1332,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,17 +1382,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,24 +1414,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1216,161 +1422,179 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1386,7 +1610,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1422,13 +1649,10 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1561,6 +1785,53 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:link="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="4152900"/>
+          <a:ext cx="5896610" cy="3401060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1875,7 +2146,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1883,7 +2154,7 @@
       </c>
     </row>
     <row r="3" ht="81" spans="2:2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1902,7 +2173,7 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1919,11 +2190,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" s="21" customFormat="1" ht="40.5" spans="1:2">
-      <c r="A14" s="21" t="s">
+    <row r="14" s="8" customFormat="1" ht="40.5" spans="1:2">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1932,7 +2203,7 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="29" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2000,7 +2271,7 @@
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="23" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2021,40 +2292,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="9" style="14"/>
-    <col min="3" max="3" width="9.875" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="14"/>
+    <col min="1" max="2" width="9" style="21"/>
+    <col min="3" max="3" width="9.875" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="21" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" ht="54" spans="2:3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="21" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" ht="45" spans="2:3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" ht="27" spans="3:3">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2075,21 +2346,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="4" width="24.25" style="14" customWidth="1"/>
-    <col min="7" max="7" width="21.375" style="14" customWidth="1"/>
+    <col min="3" max="4" width="24.25" style="21" customWidth="1"/>
+    <col min="7" max="7" width="21.375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="21" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2097,13 +2368,13 @@
       <c r="A2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="21" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2111,13 +2382,13 @@
       <c r="A3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="21" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2169,7 +2440,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="12">
+      <c r="A1" s="19">
         <v>0.647222222222222</v>
       </c>
       <c r="B1" t="s">
@@ -2188,7 +2459,7 @@
       <c r="A6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="20" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2218,7 +2489,7 @@
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2228,7 +2499,7 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="17" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2236,7 +2507,7 @@
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="18" t="s">
         <v>105</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -2302,7 +2573,7 @@
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2310,7 +2581,7 @@
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2324,7 +2595,7 @@
       <c r="B3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="14" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2337,7 +2608,7 @@
       <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="15" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2357,7 +2628,7 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -2375,10 +2646,10 @@
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="13" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2391,10 +2662,10 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2408,7 +2679,7 @@
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2446,11 +2717,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="9" customFormat="1" spans="1:4">
+      <c r="A3" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2479,12 +2750,12 @@
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="67.5" spans="2:2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2501,7 +2772,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="54" spans="1:1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2512,7 +2783,7 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="14"/>
+      <c r="A10" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2526,11 +2797,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2539,7 +2812,7 @@
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2547,43 +2820,46 @@
       <c r="A2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>145</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:1">
-      <c r="A11" s="2" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="11" s="9" customFormat="1" spans="1:1">
+      <c r="A11" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2597,11 +2873,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2611,45 +2889,338 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="14" width="9" style="5"/>
+    <col min="15" max="15" width="37.25" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="67.5" spans="4:15">
+      <c r="D2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="4:4">
+      <c r="D3" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="http://blog.sina.com.cn/s/blog_877284510102uxmb.html"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="83.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="162" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2667,11 +3238,11 @@
     <col min="1" max="2" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="17" customFormat="1" spans="1:2">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2795,7 +3366,7 @@
       <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="25" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2940,7 +3511,7 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="24" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2986,11 +3557,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" spans="1:2">
-      <c r="A6" s="10" t="s">
+    <row r="6" s="17" customFormat="1" spans="1:2">
+      <c r="A6" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3003,7 +3574,7 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="23" t="s">
         <v>65</v>
       </c>
     </row>

--- a/日志（备忘）.xlsx
+++ b/日志（备忘）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="17" activeTab="23"/>
+    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="18" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="2016.7.21" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,14 @@
     <sheet name="2016.9.30" sheetId="22" r:id="rId22"/>
     <sheet name="2016.10.8" sheetId="23" r:id="rId23"/>
     <sheet name="2016.10.9" sheetId="24" r:id="rId24"/>
+    <sheet name="2016.10.10" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
   <si>
     <t>Mybatis</t>
   </si>
@@ -813,6 +814,65 @@
   <si>
     <t>mongodb</t>
   </si>
+  <si>
+    <t>缓存技术</t>
+  </si>
+  <si>
+    <t>ETL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Extract-Transform-Load 的缩写，用来描述将数据从来源端经过抽取（extract）、转换（transform）、加载（load）至目的端的过程。ETL一词较常用在数据仓库，但其对象并不限于数据仓库。</t>
+  </si>
+  <si>
+    <t>Pig 是在MapReduce上构建的查询语言(SQL-like),适用于大量并行计算。</t>
+  </si>
+  <si>
+    <t>Chukwa 是基于Hadoop集群中监控系统，简单来说就是一个“看门狗” (WatchDog)</t>
+  </si>
+  <si>
+    <t>Hive 是DataWareHouse 和 Map Reduce交集，适用于ETL方面的工作。</t>
+  </si>
+  <si>
+    <t>HBase 是一个面向列的分布式数据库。</t>
+  </si>
+  <si>
+    <t>Map Reduce 是Google提出的一种算法，用于超大型数据集的并行运算。</t>
+  </si>
+  <si>
+    <t>HDFS 可以支持千万级的大型分布式文件系统。</t>
+  </si>
+  <si>
+    <t>Zookeeper 提供的功能包括：配置维护、名字服务、分布式同步、组服务等，用于分布式系统的可靠协调系统。</t>
+  </si>
+  <si>
+    <t>Avro 是一个数据序列化系统，设计用于支持大批量数据交换的应用。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scale Out（也就是
+Scale horizontally）横向扩展，向外扩展
+</t>
+  </si>
+  <si>
+    <t>Scale Up（也就是Scale vertically）纵向扩展，向上扩展</t>
+  </si>
+  <si>
+    <t>RDBMS</t>
+  </si>
+  <si>
+    <t>关系数据库管理系统(Relational Database Management System)，是将数据组织为相关的行和列的系统，而管理关系数据库的计算机软件就是关系数据库管理系统，常用的数据库软件有Oracle、SQL Server等。</t>
+  </si>
+  <si>
+    <t>NFS</t>
+  </si>
+  <si>
+    <t>Network File System）即网络文件系统，在NFS的应用中，本地NFS的客户端应用可以透明地读写位于远端NFS服务器上的文件，就像访问本地文件一样。</t>
+  </si>
+  <si>
+    <t>java类与编译后class文件的区别</t>
+  </si>
+  <si>
+    <t>Hbase的基本操作语句</t>
+  </si>
 </sst>
 </file>
 
@@ -824,13 +884,25 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1078,12 +1150,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1422,10 +1500,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1434,225 +1512,240 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="10" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1822,8 +1915,93 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1838325" y="4152900"/>
+          <a:off x="1838325" y="3810000"/>
           <a:ext cx="5896610" cy="3401060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="50BAF2E1-4C7A-43E0-8179-974B8AE37235"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="3867150"/>
+          <a:ext cx="3429635" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4562475" y="3657600"/>
+          <a:ext cx="5715000" cy="3352800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2146,7 +2324,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2154,7 +2332,7 @@
       </c>
     </row>
     <row r="3" ht="81" spans="2:2">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2173,7 +2351,7 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="26" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2194,16 +2372,16 @@
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1" ht="27" spans="1:2">
-      <c r="A16" s="1" t="s">
+    <row r="15" s="7" customFormat="1"/>
+    <row r="16" s="7" customFormat="1" ht="27" spans="1:2">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="34" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2237,11 +2415,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2267,11 +2445,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:11">
+      <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="28" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2292,40 +2470,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="9" style="21"/>
-    <col min="3" max="3" width="9.875" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="21"/>
+    <col min="1" max="2" width="9" style="26"/>
+    <col min="3" max="3" width="9.875" style="26" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" ht="54" spans="2:3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="26" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" ht="45" spans="2:3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" ht="27" spans="3:3">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="26" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2346,21 +2524,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="4" width="24.25" style="21" customWidth="1"/>
-    <col min="7" max="7" width="21.375" style="21" customWidth="1"/>
+    <col min="3" max="4" width="24.25" style="26" customWidth="1"/>
+    <col min="7" max="7" width="21.375" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="26" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2368,13 +2546,13 @@
       <c r="A2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="26" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2382,13 +2560,13 @@
       <c r="A3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="26" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2414,8 +2592,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="2:2">
-      <c r="B3" s="1" t="s">
+    <row r="3" s="7" customFormat="1" spans="2:2">
+      <c r="B3" s="7" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2440,26 +2618,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19">
+      <c r="A1" s="24">
         <v>0.647222222222222</v>
       </c>
       <c r="B1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="7" customFormat="1" spans="1:2">
+      <c r="A5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="18" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="7" customFormat="1" ht="18" spans="1:2">
+      <c r="A6" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="25" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2485,52 +2663,52 @@
     <col min="1" max="1" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:2">
+      <c r="A1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:1">
+      <c r="A2" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:11">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="7" customFormat="1" spans="1:11">
+      <c r="A4" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="7" customFormat="1" spans="1:1">
+      <c r="A5" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="7" customFormat="1" spans="1:1">
+      <c r="A6" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="7" customFormat="1" spans="1:1">
+      <c r="A7" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:1">
-      <c r="A8" s="1" t="s">
+    <row r="8" s="7" customFormat="1" spans="1:1">
+      <c r="A8" s="7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2569,33 +2747,33 @@
     <col min="1" max="1" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:2">
+      <c r="A1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:4">
+      <c r="A2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="7" customFormat="1" spans="1:3">
+      <c r="A3" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="19" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2604,11 +2782,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="7" customFormat="1" spans="1:2">
+      <c r="A5" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="20" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2634,52 +2812,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:2">
+      <c r="A1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:12">
+      <c r="A2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="7" customFormat="1" spans="1:2">
+      <c r="A3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15" spans="1:2">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="7" customFormat="1" ht="15" spans="1:2">
+      <c r="A4" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="7" customFormat="1" spans="1:1">
+      <c r="A5" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="1"/>
-    <row r="7" s="1" customFormat="1" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="7" customFormat="1" spans="1:2">
+      <c r="A7" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="15" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2703,25 +2881,25 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:4">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="14" customFormat="1" spans="1:4">
+      <c r="A3" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="14" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2746,44 +2924,44 @@
     <col min="2" max="2" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:2">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="67.5" spans="2:2">
-      <c r="B2" s="27" t="s">
+    <row r="2" s="7" customFormat="1" ht="67.5" spans="2:2">
+      <c r="B2" s="32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="2:2">
-      <c r="B3" s="1" t="s">
+    <row r="3" s="7" customFormat="1" spans="2:2">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="4" s="7" customFormat="1"/>
+    <row r="5" s="7" customFormat="1"/>
+    <row r="6" s="7" customFormat="1" spans="1:1">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="54" spans="1:1">
+    <row r="7" s="7" customFormat="1" ht="54" spans="1:1">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1" spans="1:1">
-      <c r="A9" s="1" t="s">
+    <row r="8" s="7" customFormat="1"/>
+    <row r="9" s="7" customFormat="1" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="21"/>
+      <c r="A10" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2803,32 +2981,32 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:2">
+      <c r="A1" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:2">
+      <c r="A2" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="7" customFormat="1" spans="1:2">
+      <c r="A3" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2857,8 +3035,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" s="9" customFormat="1" spans="1:1">
-      <c r="A11" s="9" t="s">
+    <row r="11" s="14" customFormat="1" spans="1:1">
+      <c r="A11" s="14" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2892,11 +3070,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:2">
+      <c r="A2" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2905,11 +3083,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="7" customFormat="1" spans="1:2">
+      <c r="A4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2918,11 +3096,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="7" customFormat="1" spans="1:2">
+      <c r="A6" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2948,37 +3126,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="14" width="9" style="5"/>
-    <col min="15" max="15" width="37.25" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="5"/>
+    <col min="1" max="14" width="9" style="11"/>
+    <col min="15" max="15" width="37.25" style="11" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:4">
+      <c r="A1" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="67.5" spans="4:15">
-      <c r="D2" s="3" t="s">
+    <row r="2" s="9" customFormat="1" ht="67.5" spans="4:15">
+      <c r="D2" s="9" t="s">
         <v>165</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="4:4">
-      <c r="D3" s="6" t="s">
+    <row r="3" s="9" customFormat="1" spans="4:4">
+      <c r="D3" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:2">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="10" customFormat="1" spans="1:2">
+      <c r="A4" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3002,91 +3180,91 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:2">
+      <c r="A1" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:2">
+      <c r="A2" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="7" customFormat="1" spans="1:2">
+      <c r="A3" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="7" customFormat="1" spans="1:2">
+      <c r="A4" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="7" customFormat="1" spans="1:2">
+      <c r="A5" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="7" customFormat="1" spans="1:2">
+      <c r="A6" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="7" customFormat="1" spans="1:2">
+      <c r="A7" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="8" s="7" customFormat="1" spans="1:2">
+      <c r="A8" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="7" customFormat="1" spans="1:2">
+      <c r="A9" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="7" customFormat="1" spans="1:2">
+      <c r="A10" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="7" customFormat="1" spans="1:2">
+      <c r="A11" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3103,7 +3281,7 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -3123,35 +3301,35 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="7" customFormat="1" spans="1:2">
+      <c r="A3" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="162" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="7" customFormat="1" ht="135" spans="1:2">
+      <c r="A4" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="7" customFormat="1" spans="1:2">
+      <c r="A5" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="7" customFormat="1" spans="1:2">
+      <c r="A6" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3165,11 +3343,11 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="7" customFormat="1" spans="1:2">
+      <c r="A9" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3178,27 +3356,27 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="7" customFormat="1" spans="1:2">
+      <c r="A11" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="12" s="7" customFormat="1" spans="1:2">
+      <c r="A12" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:2">
-      <c r="A13" s="1" t="s">
+    <row r="13" s="7" customFormat="1" spans="1:2">
+      <c r="A13" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3215,6 +3393,118 @@
     <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:1">
+      <c r="A6" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:1">
+      <c r="A9" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:1">
+      <c r="A10" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:1">
+      <c r="A11" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:1">
+      <c r="A12" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3238,11 +3528,11 @@
     <col min="1" max="2" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="22" customFormat="1" spans="1:2">
+      <c r="A1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3356,17 +3646,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:4">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="7" customFormat="1" spans="1:4">
+      <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="30" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3422,8 +3712,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:1">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="7" customFormat="1" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3505,13 +3795,13 @@
     <col min="1" max="1" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="29" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3542,39 +3832,39 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:1">
+      <c r="A2" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="7" customFormat="1" spans="1:1">
+      <c r="A3" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="7" customFormat="1" spans="1:1">
+      <c r="A4" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" spans="1:2">
-      <c r="A6" s="17" t="s">
+    <row r="6" s="22" customFormat="1" spans="1:2">
+      <c r="A6" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="7" customFormat="1" spans="1:2">
+      <c r="A7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:1">
-      <c r="A10" s="23" t="s">
+    <row r="10" s="7" customFormat="1" spans="1:1">
+      <c r="A10" s="28" t="s">
         <v>65</v>
       </c>
     </row>

--- a/日志（备忘）.xlsx
+++ b/日志（备忘）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="18" activeTab="24"/>
+    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="25" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="2016.7.21" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,20 @@
     <sheet name="2016.10.8" sheetId="23" r:id="rId23"/>
     <sheet name="2016.10.9" sheetId="24" r:id="rId24"/>
     <sheet name="2016.10.10" sheetId="25" r:id="rId25"/>
+    <sheet name="2016.10.11" sheetId="26" r:id="rId26"/>
+    <sheet name="2016.10.12" sheetId="27" r:id="rId27"/>
+    <sheet name="2016.10.14" sheetId="28" r:id="rId28"/>
+    <sheet name="2016.10.17" sheetId="29" r:id="rId29"/>
+    <sheet name="2016.10.18" sheetId="30" r:id="rId30"/>
+    <sheet name="2016.10.19" sheetId="31" r:id="rId31"/>
+    <sheet name="2016.10.20" sheetId="32" r:id="rId32"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266">
   <si>
     <t>Mybatis</t>
   </si>
@@ -873,6 +880,99 @@
   <si>
     <t>Hbase的基本操作语句</t>
   </si>
+  <si>
+    <t>EndpointReference</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>OMFactory</t>
+  </si>
+  <si>
+    <t>返回结果整理（有记录，无记录）</t>
+  </si>
+  <si>
+    <t>nexus搭建maven仓库</t>
+  </si>
+  <si>
+    <t>HessianServiceExporter</t>
+  </si>
+  <si>
+    <t>H5开发</t>
+  </si>
+  <si>
+    <t>object-c</t>
+  </si>
+  <si>
+    <t>WSDL用来描述服务；</t>
+  </si>
+  <si>
+    <t>UDDI用来注册和查找服务；</t>
+  </si>
+  <si>
+    <t>而SOAP，作为传输层，用来在消费者和服务提供者之间传送消息。SOAP是Web服务的默认机制，其他的技术为可以服务实现其他类型的绑定。</t>
+  </si>
+  <si>
+    <t>scheduleDetailId与workId是否相同？</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>SSLContext</t>
+  </si>
+  <si>
+    <t>http://www.tuicool.com/articles/QFJn6j7</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>认证授权机构</t>
+  </si>
+  <si>
+    <t>less css</t>
+  </si>
+  <si>
+    <t>给后端开发者的程序化css表</t>
+  </si>
+  <si>
+    <t>easyUi</t>
+  </si>
+  <si>
+    <t>js中push与concat的区别</t>
+  </si>
+  <si>
+    <t>push数组尾部添加，concat连接</t>
+  </si>
+  <si>
+    <t>scss</t>
+  </si>
+  <si>
+    <t>与less相似，简化版的css</t>
+  </si>
+  <si>
+    <t>http://sass-lang.com/</t>
+  </si>
+  <si>
+    <t>HCN</t>
+  </si>
+  <si>
+    <t>PCN</t>
+  </si>
+  <si>
+    <t>云视频</t>
+  </si>
+  <si>
+    <t>Maven</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/wang379275614/article/details/43938011</t>
+  </si>
 </sst>
 </file>
 
@@ -880,17 +980,31 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF464646"/>
+      <name val="simsun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -903,14 +1017,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1001,13 +1107,6 @@
       <color rgb="FFE8BF6A"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1110,6 +1209,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1150,7 +1256,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1159,7 +1265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,13 +1283,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,43 +1295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,43 +1319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,7 +1331,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,6 +1379,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1351,13 +1415,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,10 +1612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1512,31 +1624,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1557,114 +1669,126 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="10" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1676,21 +1800,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1706,46 +1821,46 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2002,6 +2117,53 @@
         <a:xfrm>
           <a:off x="4562475" y="3657600"/>
           <a:ext cx="5715000" cy="3352800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1249045</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>440055</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:link="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1934845" y="2171700"/>
+          <a:ext cx="6963410" cy="2105660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2324,7 +2486,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2332,7 +2494,7 @@
       </c>
     </row>
     <row r="3" ht="81" spans="2:2">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2351,7 +2513,7 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2368,20 +2530,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" s="8" customFormat="1" ht="40.5" spans="1:2">
-      <c r="A14" s="8" t="s">
+    <row r="14" s="12" customFormat="1" ht="40.5" spans="1:2">
+      <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" s="7" customFormat="1"/>
-    <row r="16" s="7" customFormat="1" ht="27" spans="1:2">
-      <c r="A16" s="7" t="s">
+    <row r="15" s="3" customFormat="1"/>
+    <row r="16" s="3" customFormat="1" ht="27" spans="1:2">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2415,11 +2577,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:5">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2445,11 +2607,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:11">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="29" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2470,40 +2632,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="9" style="26"/>
-    <col min="3" max="3" width="9.875" style="26" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="26"/>
+    <col min="1" max="2" width="9" style="27"/>
+    <col min="3" max="3" width="9.875" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" ht="54" spans="2:3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" ht="45" spans="2:3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" ht="27" spans="3:3">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2524,21 +2686,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="4" width="24.25" style="26" customWidth="1"/>
-    <col min="7" max="7" width="21.375" style="26" customWidth="1"/>
+    <col min="3" max="4" width="24.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="21.375" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="27" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2546,13 +2708,13 @@
       <c r="A2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2560,13 +2722,13 @@
       <c r="A3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="27" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2592,8 +2754,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="2:2">
-      <c r="B3" s="7" t="s">
+    <row r="3" s="3" customFormat="1" spans="2:2">
+      <c r="B3" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2618,26 +2780,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="24">
+      <c r="A1" s="25">
         <v>0.647222222222222</v>
       </c>
       <c r="B1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:2">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" ht="18" spans="1:2">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="3" customFormat="1" ht="18" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2663,52 +2825,52 @@
     <col min="1" max="1" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:1">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:11">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:11">
+      <c r="A4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:1">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:1">
+      <c r="A5" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" spans="1:1">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:1">
+      <c r="A6" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" spans="1:1">
-      <c r="A7" s="7" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:1">
-      <c r="A8" s="7" t="s">
+    <row r="8" s="3" customFormat="1" spans="1:1">
+      <c r="A8" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2747,33 +2909,33 @@
     <col min="1" max="1" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:3">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="21" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2782,11 +2944,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:2">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="22" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2812,52 +2974,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:12">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:2">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" ht="15" spans="1:2">
-      <c r="A4" s="16" t="s">
+    <row r="4" s="3" customFormat="1" ht="15" spans="1:2">
+      <c r="A4" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:1">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:1">
+      <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="1"/>
-    <row r="7" s="7" customFormat="1" spans="1:2">
-      <c r="A7" s="7" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2887,19 +3049,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" s="14" customFormat="1" spans="1:4">
-      <c r="A3" s="14" t="s">
+    <row r="3" s="5" customFormat="1" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="5" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2924,44 +3086,44 @@
     <col min="2" max="2" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" ht="67.5" spans="2:2">
-      <c r="B2" s="32" t="s">
+    <row r="2" s="3" customFormat="1" ht="67.5" spans="2:2">
+      <c r="B2" s="33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="2:2">
-      <c r="B3" s="7" t="s">
+    <row r="3" s="3" customFormat="1" spans="2:2">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1"/>
-    <row r="5" s="7" customFormat="1"/>
-    <row r="6" s="7" customFormat="1" spans="1:1">
-      <c r="A6" s="7" t="s">
+    <row r="4" s="3" customFormat="1"/>
+    <row r="5" s="3" customFormat="1"/>
+    <row r="6" s="3" customFormat="1" spans="1:1">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" ht="54" spans="1:1">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="3" customFormat="1" ht="54" spans="1:1">
+      <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1"/>
-    <row r="9" s="7" customFormat="1" spans="1:1">
-      <c r="A9" s="7" t="s">
+    <row r="8" s="3" customFormat="1"/>
+    <row r="9" s="3" customFormat="1" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2986,27 +3148,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:2">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:2">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3035,8 +3197,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" s="14" customFormat="1" spans="1:1">
-      <c r="A11" s="14" t="s">
+    <row r="11" s="5" customFormat="1" spans="1:1">
+      <c r="A11" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3070,11 +3232,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:2">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3083,11 +3245,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:2">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3096,11 +3258,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" spans="1:2">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3126,37 +3288,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="14" width="9" style="11"/>
-    <col min="15" max="15" width="37.25" style="11" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="11"/>
+    <col min="1" max="14" width="9" style="10"/>
+    <col min="15" max="15" width="37.25" style="10" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="13" customFormat="1" spans="1:4">
+      <c r="A1" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="67.5" spans="4:15">
-      <c r="D2" s="9" t="s">
+    <row r="2" s="13" customFormat="1" ht="67.5" spans="4:15">
+      <c r="D2" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="4:4">
-      <c r="D3" s="12" t="s">
+    <row r="3" s="13" customFormat="1" spans="4:4">
+      <c r="D3" s="15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" spans="1:2">
-      <c r="A4" s="13" t="s">
+    <row r="4" s="14" customFormat="1" spans="1:2">
+      <c r="A4" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="14" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3180,91 +3342,91 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:2">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:2">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:2">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:2">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" spans="1:2">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" spans="1:2">
-      <c r="A7" s="7" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:2">
-      <c r="A8" s="7" t="s">
+    <row r="8" s="3" customFormat="1" spans="1:2">
+      <c r="A8" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:2">
-      <c r="A9" s="7" t="s">
+    <row r="9" s="3" customFormat="1" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" spans="1:2">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="3" customFormat="1" spans="1:2">
+      <c r="A10" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" spans="1:2">
-      <c r="A11" s="7" t="s">
+    <row r="11" s="3" customFormat="1" spans="1:2">
+      <c r="A11" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3301,35 +3463,35 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:2">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" ht="135" spans="1:2">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="3" customFormat="1" ht="135" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:2">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" spans="1:2">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3343,11 +3505,11 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:2">
-      <c r="A9" s="7" t="s">
+    <row r="9" s="3" customFormat="1" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3356,27 +3518,27 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" spans="1:2">
-      <c r="A11" s="7" t="s">
+    <row r="11" s="3" customFormat="1" spans="1:2">
+      <c r="A11" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" s="7" customFormat="1" spans="1:2">
-      <c r="A12" s="7" t="s">
+    <row r="12" s="3" customFormat="1" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="13" s="7" customFormat="1" spans="1:2">
-      <c r="A13" s="7" t="s">
+    <row r="13" s="3" customFormat="1" spans="1:2">
+      <c r="A13" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3409,80 +3571,80 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>217</v>
       </c>
       <c r="B2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:1">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="7" customFormat="1" spans="1:1">
+      <c r="A3" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:1">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="7" customFormat="1" spans="1:1">
+      <c r="A4" s="11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:1">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="7" customFormat="1" spans="1:1">
+      <c r="A5" s="11" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:1">
-      <c r="A6" s="5" t="s">
+    <row r="6" s="7" customFormat="1" spans="1:1">
+      <c r="A6" s="11" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="5" t="s">
+    <row r="7" s="7" customFormat="1" spans="1:1">
+      <c r="A7" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:1">
-      <c r="A8" s="5" t="s">
+    <row r="8" s="7" customFormat="1" spans="1:1">
+      <c r="A8" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:1">
-      <c r="A9" s="5" t="s">
+    <row r="9" s="7" customFormat="1" spans="1:1">
+      <c r="A9" s="11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:1">
-      <c r="A10" s="5" t="s">
+    <row r="10" s="7" customFormat="1" spans="1:1">
+      <c r="A10" s="11" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:1">
-      <c r="A11" s="6" t="s">
+    <row r="11" s="8" customFormat="1" spans="1:1">
+      <c r="A11" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:1">
-      <c r="A12" s="6" t="s">
+    <row r="12" s="9" customFormat="1" spans="1:1">
+      <c r="A12" s="8" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="10" t="s">
         <v>229</v>
       </c>
       <c r="B13" t="s">
@@ -3490,7 +3652,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="10" t="s">
         <v>231</v>
       </c>
       <c r="B14" t="s">
@@ -3498,12 +3660,12 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="10" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3511,6 +3673,174 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="120" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:1">
+      <c r="A7" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:1">
+      <c r="A8" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:1">
+      <c r="A9" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="35.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -3528,11 +3858,11 @@
     <col min="1" max="2" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="1" spans="1:2">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="23" customFormat="1" spans="1:2">
+      <c r="A1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3574,6 +3904,131 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" display="http://sass-lang.com/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="66" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId2" display="http://blog.csdn.net/wang379275614/article/details/43938011"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3646,17 +4101,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" spans="1:4">
-      <c r="A11" s="7" t="s">
+    <row r="11" s="3" customFormat="1" spans="1:4">
+      <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="31" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3712,8 +4167,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:1">
-      <c r="A9" s="7" t="s">
+    <row r="9" s="3" customFormat="1" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3795,13 +4250,13 @@
     <col min="1" max="1" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:1">
+      <c r="A1" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3832,39 +4287,39 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:1">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:1">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:1">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:1">
+      <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" s="22" customFormat="1" spans="1:2">
-      <c r="A6" s="22" t="s">
+    <row r="6" s="23" customFormat="1" spans="1:2">
+      <c r="A6" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" spans="1:2">
-      <c r="A7" s="7" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" spans="1:1">
-      <c r="A10" s="28" t="s">
+    <row r="10" s="3" customFormat="1" spans="1:1">
+      <c r="A10" s="29" t="s">
         <v>65</v>
       </c>
     </row>

--- a/日志（备忘）.xlsx
+++ b/日志（备忘）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="25" activeTab="31"/>
+    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="26" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="2016.7.21" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,17 @@
     <sheet name="2016.10.18" sheetId="30" r:id="rId30"/>
     <sheet name="2016.10.19" sheetId="31" r:id="rId31"/>
     <sheet name="2016.10.20" sheetId="32" r:id="rId32"/>
+    <sheet name="2016.10.21" sheetId="33" r:id="rId33"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">'2016.10.21'!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276">
   <si>
     <t>Mybatis</t>
   </si>
@@ -973,15 +977,45 @@
   <si>
     <t>http://blog.csdn.net/wang379275614/article/details/43938011</t>
   </si>
+  <si>
+    <t>red5+flex</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/dianfusoft/article/details/7973267</t>
+  </si>
+  <si>
+    <t>http://logback.qos.ch/manual/configuration.html</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/youqishini/article/details/7960046</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/youqishini/article/category/909072</t>
+  </si>
+  <si>
+    <t>logback.xml配置文件详解</t>
+  </si>
+  <si>
+    <t>http://aub.iteye.com/blog/1110008</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/yin-jingyu/archive/2011/09/02/2163448.html</t>
+  </si>
+  <si>
+    <t>JMF</t>
+  </si>
+  <si>
+    <t>设计模式</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
@@ -996,6 +1030,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1095,14 +1137,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11.3"/>
       <color rgb="FFE8BF6A"/>
       <name val="宋体"/>
@@ -1110,24 +1144,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,6 +1174,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1163,19 +1204,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1195,39 +1249,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1265,13 +1299,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,43 +1323,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,13 +1359,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,48 +1443,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1439,30 +1461,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1470,6 +1468,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1532,6 +1566,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1560,50 +1638,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1612,10 +1646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1624,16 +1658,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1642,225 +1676,228 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="10" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2486,7 +2523,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2494,7 +2531,7 @@
       </c>
     </row>
     <row r="3" ht="81" spans="2:2">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2513,7 +2550,7 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2530,20 +2567,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" s="12" customFormat="1" ht="40.5" spans="1:2">
-      <c r="A14" s="12" t="s">
+    <row r="14" s="13" customFormat="1" ht="40.5" spans="1:2">
+      <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1"/>
-    <row r="16" s="3" customFormat="1" ht="27" spans="1:2">
-      <c r="A16" s="3" t="s">
+    <row r="15" s="1" customFormat="1"/>
+    <row r="16" s="1" customFormat="1" ht="27" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2577,11 +2614,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2607,11 +2644,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:11">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="30" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2632,40 +2669,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="9" style="27"/>
-    <col min="3" max="3" width="9.875" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="27"/>
+    <col min="1" max="2" width="9" style="28"/>
+    <col min="3" max="3" width="9.875" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" ht="54" spans="2:3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" ht="45" spans="2:3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" ht="27" spans="3:3">
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2686,21 +2723,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="4" width="24.25" style="27" customWidth="1"/>
-    <col min="7" max="7" width="21.375" style="27" customWidth="1"/>
+    <col min="3" max="4" width="24.25" style="28" customWidth="1"/>
+    <col min="7" max="7" width="21.375" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2708,13 +2745,13 @@
       <c r="A2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="28" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2722,13 +2759,13 @@
       <c r="A3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="28" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2754,8 +2791,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="2:2">
-      <c r="B3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" spans="2:2">
+      <c r="B3" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2780,26 +2817,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25">
+      <c r="A1" s="26">
         <v>0.647222222222222</v>
       </c>
       <c r="B1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:2">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="18" spans="1:2">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="1" customFormat="1" ht="18" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2825,52 +2862,52 @@
     <col min="1" max="1" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:1">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:11">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:1">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:1">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:1">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="1" customFormat="1" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2909,33 +2946,33 @@
     <col min="1" max="1" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:3">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2944,11 +2981,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:2">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2974,52 +3011,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:12">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="15" spans="1:2">
-      <c r="A4" s="18" t="s">
+    <row r="4" s="1" customFormat="1" ht="15" spans="1:2">
+      <c r="A4" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:1">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="1"/>
-    <row r="7" s="3" customFormat="1" spans="1:2">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3049,19 +3086,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="1:4">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="6" customFormat="1" spans="1:4">
+      <c r="A3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3086,44 +3123,44 @@
     <col min="2" max="2" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="67.5" spans="2:2">
-      <c r="B2" s="33" t="s">
+    <row r="2" s="1" customFormat="1" ht="67.5" spans="2:2">
+      <c r="B2" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="2:2">
-      <c r="B3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" spans="2:2">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1"/>
-    <row r="5" s="3" customFormat="1"/>
-    <row r="6" s="3" customFormat="1" spans="1:1">
-      <c r="A6" s="3" t="s">
+    <row r="4" s="1" customFormat="1"/>
+    <row r="5" s="1" customFormat="1"/>
+    <row r="6" s="1" customFormat="1" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="54" spans="1:1">
-      <c r="A7" s="12" t="s">
+    <row r="7" s="1" customFormat="1" ht="54" spans="1:1">
+      <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1"/>
-    <row r="9" s="3" customFormat="1" spans="1:1">
-      <c r="A9" s="3" t="s">
+    <row r="8" s="1" customFormat="1"/>
+    <row r="9" s="1" customFormat="1" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3148,27 +3185,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3197,8 +3234,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" spans="1:1">
-      <c r="A11" s="5" t="s">
+    <row r="11" s="6" customFormat="1" spans="1:1">
+      <c r="A11" s="6" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3232,11 +3269,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3245,11 +3282,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3258,11 +3295,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:2">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3288,37 +3325,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="14" width="9" style="10"/>
-    <col min="15" max="15" width="37.25" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="10"/>
+    <col min="1" max="14" width="9" style="11"/>
+    <col min="15" max="15" width="37.25" style="11" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="14" customFormat="1" spans="1:4">
+      <c r="A1" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="1" ht="67.5" spans="4:15">
-      <c r="D2" s="13" t="s">
+    <row r="2" s="14" customFormat="1" ht="67.5" spans="4:15">
+      <c r="D2" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" s="13" customFormat="1" spans="4:4">
-      <c r="D3" s="15" t="s">
+    <row r="3" s="14" customFormat="1" spans="4:4">
+      <c r="D3" s="16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" s="14" customFormat="1" spans="1:2">
-      <c r="A4" s="16" t="s">
+    <row r="4" s="15" customFormat="1" spans="1:2">
+      <c r="A4" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3342,91 +3379,91 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:2">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:2">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:2">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:2">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="1" customFormat="1" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:2">
-      <c r="A9" s="3" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:2">
-      <c r="A10" s="3" t="s">
+    <row r="10" s="1" customFormat="1" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:2">
-      <c r="A11" s="3" t="s">
+    <row r="11" s="1" customFormat="1" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3463,35 +3500,35 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="135" spans="1:2">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="1" customFormat="1" ht="135" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:2">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:2">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3505,11 +3542,11 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:2">
-      <c r="A9" s="3" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3518,27 +3555,27 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:2">
-      <c r="A11" s="3" t="s">
+    <row r="11" s="1" customFormat="1" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:2">
-      <c r="A12" s="3" t="s">
+    <row r="12" s="1" customFormat="1" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:2">
-      <c r="A13" s="3" t="s">
+    <row r="13" s="1" customFormat="1" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3577,74 +3614,74 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>217</v>
       </c>
       <c r="B2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:1">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:1">
+      <c r="A3" s="12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:1">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="8" customFormat="1" spans="1:1">
+      <c r="A4" s="12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:1">
-      <c r="A5" s="11" t="s">
+    <row r="5" s="8" customFormat="1" spans="1:1">
+      <c r="A5" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" spans="1:1">
-      <c r="A6" s="11" t="s">
+    <row r="6" s="8" customFormat="1" spans="1:1">
+      <c r="A6" s="12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" spans="1:1">
-      <c r="A7" s="11" t="s">
+    <row r="7" s="8" customFormat="1" spans="1:1">
+      <c r="A7" s="12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:1">
-      <c r="A8" s="11" t="s">
+    <row r="8" s="8" customFormat="1" spans="1:1">
+      <c r="A8" s="12" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:1">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="8" customFormat="1" spans="1:1">
+      <c r="A9" s="12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" spans="1:1">
-      <c r="A10" s="11" t="s">
+    <row r="10" s="8" customFormat="1" spans="1:1">
+      <c r="A10" s="12" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="1" spans="1:1">
-      <c r="A11" s="8" t="s">
+    <row r="11" s="9" customFormat="1" spans="1:1">
+      <c r="A11" s="9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="12" s="9" customFormat="1" spans="1:1">
-      <c r="A12" s="8" t="s">
+    <row r="12" s="10" customFormat="1" spans="1:1">
+      <c r="A12" s="9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>229</v>
       </c>
       <c r="B13" t="s">
@@ -3652,7 +3689,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>231</v>
       </c>
       <c r="B14" t="s">
@@ -3660,12 +3697,12 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3734,8 +3771,8 @@
     <col min="1" max="1" width="120" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:1">
+      <c r="A1" s="6" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3754,23 +3791,23 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:1">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:1">
-      <c r="A7" s="6" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:1">
-      <c r="A8" s="6" t="s">
+    <row r="8" s="1" customFormat="1" spans="1:1">
+      <c r="A8" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:1">
-      <c r="A9" s="6" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3794,11 +3831,11 @@
     <col min="1" max="1" width="35.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:2">
+      <c r="A1" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3822,19 +3859,19 @@
     <col min="1" max="1" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3858,11 +3895,11 @@
     <col min="1" max="2" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" spans="1:2">
-      <c r="A1" s="23" t="s">
+    <row r="1" s="24" customFormat="1" spans="1:2">
+      <c r="A1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3922,11 +3959,11 @@
     <col min="2" max="2" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3935,11 +3972,11 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3963,14 +4000,14 @@
     <col min="2" max="2" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3990,8 +4027,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -3999,13 +4036,13 @@
     <col min="2" max="2" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="5" customFormat="1" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4014,8 +4051,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4029,6 +4066,81 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="2:2">
+      <c r="B3" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:2">
+      <c r="B7" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="http://blog.csdn.net/dianfusoft/article/details/7973267"/>
+    <hyperlink ref="B6" r:id="rId2" display="http://aub.iteye.com/blog/1110008"/>
+    <hyperlink ref="B2" r:id="rId3" display="http://blog.csdn.net/youqishini/article/details/7960046"/>
+    <hyperlink ref="B3" r:id="rId4" display="http://blog.csdn.net/youqishini/article/category/909072"/>
+    <hyperlink ref="I1" r:id="rId5" display="http://logback.qos.ch/manual/configuration.html"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://www.cnblogs.com/yin-jingyu/archive/2011/09/02/2163448.html"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4101,17 +4213,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:4">
-      <c r="A11" s="3" t="s">
+    <row r="11" s="1" customFormat="1" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="32" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4167,8 +4279,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:1">
-      <c r="A9" s="3" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4250,13 +4362,13 @@
     <col min="1" max="1" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4287,39 +4399,39 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:1">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:1">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:1">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" s="23" customFormat="1" spans="1:2">
-      <c r="A6" s="23" t="s">
+    <row r="6" s="24" customFormat="1" spans="1:2">
+      <c r="A6" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:2">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:1">
-      <c r="A10" s="29" t="s">
+    <row r="10" s="1" customFormat="1" spans="1:1">
+      <c r="A10" s="30" t="s">
         <v>65</v>
       </c>
     </row>
